--- a/QMU/MC2.0/test1.xlsx
+++ b/QMU/MC2.0/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MATLAB\MyMatlab\QMU\MC2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7EC7A-D592-4660-A856-1531A6F57590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417862AE-7FCF-4870-A2F3-94411D487CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="1920" windowWidth="16230" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="1140" windowWidth="16230" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,154 +362,154 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>1.5418659951639218</v>
+        <v>1.5101435048753247</v>
       </c>
       <c r="B1" s="1">
-        <v>1.5007095881165693</v>
+        <v>1.6148779091792829</v>
       </c>
       <c r="C1" s="1">
-        <v>1.5143742603035191</v>
+        <v>1.2841851736309051</v>
       </c>
       <c r="D1" s="1">
-        <v>1.4440953661345914</v>
+        <v>1.536363604285744</v>
       </c>
       <c r="E1" s="1">
-        <v>1.4565141306504186</v>
+        <v>1.4924562313806056</v>
       </c>
       <c r="F1" s="1">
-        <v>1.4740969246448652</v>
+        <v>1.3610387856585338</v>
       </c>
       <c r="G1" s="1">
-        <v>1.3688207410652382</v>
+        <v>1.4316657645977007</v>
       </c>
       <c r="H1" s="1">
-        <v>1.501299826900959</v>
+        <v>1.4943840568963227</v>
       </c>
       <c r="I1" s="1">
-        <v>1.37519864002979</v>
+        <v>1.7558344727298414</v>
       </c>
       <c r="J1" s="1">
-        <v>1.483816057150158</v>
+        <v>1.6904705120146979</v>
       </c>
       <c r="K1" s="1">
-        <v>1.4815878548093955</v>
+        <v>1.3576291352353529</v>
       </c>
       <c r="L1" s="1">
-        <v>1.5548568798507283</v>
+        <v>1.7119218160796137</v>
       </c>
       <c r="M1" s="1">
-        <v>1.3779956964252615</v>
+        <v>1.5253126613756451</v>
       </c>
       <c r="N1" s="1">
-        <v>1.4261344543611427</v>
+        <v>1.4616051662462757</v>
       </c>
       <c r="O1" s="1">
-        <v>1.5454361941516037</v>
+        <v>1.5244512266291483</v>
       </c>
       <c r="P1" s="1">
-        <v>1.5392609028159998</v>
+        <v>1.4501387424893781</v>
       </c>
       <c r="Q1" s="1">
-        <v>1.3577386567717815</v>
+        <v>1.4566691366641218</v>
       </c>
       <c r="R1" s="1">
-        <v>1.5137587758745652</v>
+        <v>1.5870675667090655</v>
       </c>
       <c r="S1" s="1">
-        <v>1.5531157079578661</v>
+        <v>1.5805499867758785</v>
       </c>
       <c r="T1" s="1">
-        <v>1.5407923915783246</v>
+        <v>1.5812091470051126</v>
       </c>
       <c r="U1" s="1">
-        <v>1.5232717813989247</v>
+        <v>1.5209569683955328</v>
       </c>
       <c r="V1" s="1">
-        <v>1.444049565556361</v>
+        <v>1.3691350566470488</v>
       </c>
       <c r="W1" s="1">
-        <v>1.3754444490661386</v>
+        <v>1.52465288302737</v>
       </c>
       <c r="X1" s="1">
-        <v>1.4438661892681564</v>
+        <v>1.5984230113645099</v>
       </c>
       <c r="Y1" s="1">
-        <v>1.4954352399759996</v>
+        <v>1.5062026166411924</v>
       </c>
       <c r="Z1" s="1">
-        <v>1.3457065874790342</v>
+        <v>1.5503031952013631</v>
       </c>
       <c r="AA1" s="1">
-        <v>1.5025388825172101</v>
+        <v>1.5254323187773655</v>
       </c>
       <c r="AB1" s="1">
-        <v>1.447919180471414</v>
+        <v>1.4421819732772898</v>
       </c>
       <c r="AC1" s="1">
-        <v>1.5077597954655884</v>
+        <v>1.4904448145414098</v>
       </c>
       <c r="AD1" s="1">
-        <v>1.3603708407703101</v>
+        <v>1.403087549456302</v>
       </c>
       <c r="AE1" s="1">
-        <v>1.4374116785248583</v>
+        <v>1.5384823670460173</v>
       </c>
       <c r="AF1" s="1">
-        <v>1.3641837114970847</v>
+        <v>1.3740167353568926</v>
       </c>
       <c r="AG1" s="1">
-        <v>1.4089741606423793</v>
+        <v>1.3803352669800228</v>
       </c>
       <c r="AH1" s="1">
-        <v>1.3188753464459917</v>
+        <v>1.4012925054904699</v>
       </c>
       <c r="AI1" s="1">
-        <v>1.6029241342776048</v>
+        <v>1.2288018397108122</v>
       </c>
       <c r="AJ1" s="1">
-        <v>1.3661446873942231</v>
+        <v>1.5829211276594599</v>
       </c>
       <c r="AK1" s="1">
-        <v>1.3326195548609494</v>
+        <v>1.4929753955880607</v>
       </c>
       <c r="AL1" s="1">
-        <v>1.49244922814878</v>
+        <v>1.4057017918110879</v>
       </c>
       <c r="AM1" s="1">
-        <v>1.4450929039502087</v>
+        <v>1.5774201220396944</v>
       </c>
       <c r="AN1" s="1">
-        <v>1.6070357490164684</v>
+        <v>1.3284094733566212</v>
       </c>
       <c r="AO1" s="1">
-        <v>1.4748056502719482</v>
+        <v>1.4584388103562922</v>
       </c>
       <c r="AP1" s="1">
-        <v>1.5817067786735493</v>
+        <v>1.4471910790381253</v>
       </c>
       <c r="AQ1" s="1">
-        <v>1.7209082808487768</v>
+        <v>1.4924919045245724</v>
       </c>
       <c r="AR1" s="1">
-        <v>1.4722945830110388</v>
+        <v>1.4919789746083041</v>
       </c>
       <c r="AS1" s="1">
-        <v>1.4303087552361271</v>
+        <v>1.3968177026801838</v>
       </c>
       <c r="AT1" s="1">
-        <v>1.583654592102663</v>
+        <v>1.4642718552673415</v>
       </c>
       <c r="AU1" s="1">
-        <v>1.5088597385525044</v>
+        <v>1.4533777752479096</v>
       </c>
       <c r="AV1" s="1">
-        <v>1.3884330694585996</v>
+        <v>1.517418748832321</v>
       </c>
       <c r="AW1" s="1">
-        <v>1.6031386115402351</v>
+        <v>1.5550358660583903</v>
       </c>
       <c r="AX1" s="1">
-        <v>1.5483044837184834</v>
+        <v>1.5563292824472432</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
@@ -520,7 +520,7 @@
         <v>1.6</v>
       </c>
       <c r="C2" s="1">
-        <v>1.5</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="D2" s="1">
         <v>1.6</v>
@@ -532,7 +532,7 @@
         <v>1.4</v>
       </c>
       <c r="G2" s="1">
-        <v>1.5</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="H2" s="1">
         <v>1.4</v>
@@ -541,19 +541,19 @@
         <v>1.5</v>
       </c>
       <c r="J2" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="K2" s="1">
-        <v>1.5</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="L2" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="M2" s="1">
-        <v>1.5</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="O2" s="1">
         <v>1.5</v>
@@ -583,46 +583,46 @@
         <v>1.5</v>
       </c>
       <c r="X2" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="Y2" s="1">
         <v>1.5</v>
       </c>
       <c r="Z2" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AA2" s="1">
-        <v>1.2999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="AB2" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AC2" s="1">
         <v>1.5</v>
       </c>
       <c r="AD2" s="1">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AE2" s="1">
         <v>1.5</v>
       </c>
       <c r="AF2" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AG2" s="1">
-        <v>1.2999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="AH2" s="1">
         <v>1.4</v>
       </c>
       <c r="AI2" s="1">
-        <v>1.2999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="AJ2" s="1">
         <v>1.4</v>
       </c>
       <c r="AK2" s="1">
-        <v>1.2999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="AL2" s="1">
         <v>1.4</v>
@@ -631,7 +631,7 @@
         <v>1.5</v>
       </c>
       <c r="AN2" s="1">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AO2" s="1">
         <v>1.5</v>
@@ -643,7 +643,7 @@
         <v>1.5</v>
       </c>
       <c r="AR2" s="1">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AS2" s="1">
         <v>1.5</v>
@@ -655,7 +655,7 @@
         <v>1.5</v>
       </c>
       <c r="AV2" s="1">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AW2" s="1">
         <v>1.5</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -681,16 +681,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>1</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>1</v>
@@ -747,43 +747,43 @@
         <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="1">
         <v>1</v>
       </c>
       <c r="AG3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="1">
         <v>0</v>
       </c>
       <c r="AM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3" s="1">
         <v>1</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="1">
         <v>1</v>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="AU3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" s="1">
         <v>0</v>
